--- a/suppxls/Scen_Annual_Demand_Ref.xlsx
+++ b/suppxls/Scen_Annual_Demand_Ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIM-EL\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB336138-F59A-4F0F-B119-58D22ED0E048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A7DDC-E07C-4E2C-9367-373961DCE7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="28395" windowHeight="14235" xr2:uid="{7C7B551C-E28D-49F9-9E5D-76616D72ADE5}"/>
+    <workbookView xWindow="1830" yWindow="405" windowWidth="23445" windowHeight="15450" xr2:uid="{7C7B551C-E28D-49F9-9E5D-76616D72ADE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B606CF4-21D3-4572-B7C2-81A634AEA2C4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D2:Q8"/>
+  <dimension ref="D2:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:Q8"/>
+      <selection activeCell="Q8" sqref="Q8:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:37" x14ac:dyDescent="0.25">
       <c r="G2">
         <v>2017</v>
       </c>
@@ -459,8 +459,68 @@
       <c r="Q2">
         <v>2030</v>
       </c>
+      <c r="R2">
+        <v>2031</v>
+      </c>
+      <c r="S2">
+        <v>2032</v>
+      </c>
+      <c r="T2">
+        <v>2033</v>
+      </c>
+      <c r="U2">
+        <v>2034</v>
+      </c>
+      <c r="V2">
+        <v>2035</v>
+      </c>
+      <c r="W2">
+        <v>2036</v>
+      </c>
+      <c r="X2">
+        <v>2037</v>
+      </c>
+      <c r="Y2">
+        <v>2038</v>
+      </c>
+      <c r="Z2">
+        <v>2039</v>
+      </c>
+      <c r="AA2">
+        <v>2040</v>
+      </c>
+      <c r="AB2">
+        <v>2041</v>
+      </c>
+      <c r="AC2">
+        <v>2042</v>
+      </c>
+      <c r="AD2">
+        <v>2043</v>
+      </c>
+      <c r="AE2">
+        <v>2044</v>
+      </c>
+      <c r="AF2">
+        <v>2045</v>
+      </c>
+      <c r="AG2">
+        <v>2046</v>
+      </c>
+      <c r="AH2">
+        <v>2047</v>
+      </c>
+      <c r="AI2">
+        <v>2048</v>
+      </c>
+      <c r="AJ2">
+        <v>2049</v>
+      </c>
+      <c r="AK2">
+        <v>2050</v>
+      </c>
     </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:37" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>6</v>
       </c>
@@ -497,13 +557,73 @@
       <c r="Q3">
         <v>244650.356076842</v>
       </c>
+      <c r="R3">
+        <v>251444.83518433457</v>
+      </c>
+      <c r="S3">
+        <v>258783.94924618702</v>
+      </c>
+      <c r="T3">
+        <v>265263.30896215944</v>
+      </c>
+      <c r="U3">
+        <v>273117.41240514588</v>
+      </c>
+      <c r="V3">
+        <v>276039.79001293099</v>
+      </c>
+      <c r="W3">
+        <v>283755.32674828876</v>
+      </c>
+      <c r="X3">
+        <v>292067.76979976828</v>
+      </c>
+      <c r="Y3">
+        <v>300823.30140487646</v>
+      </c>
+      <c r="Z3">
+        <v>309563.90928671957</v>
+      </c>
+      <c r="AA3">
+        <v>318261.39967951499</v>
+      </c>
+      <c r="AB3">
+        <v>327702.95572908991</v>
+      </c>
+      <c r="AC3">
+        <v>337102.51639970695</v>
+      </c>
+      <c r="AD3">
+        <v>346536.78194036102</v>
+      </c>
+      <c r="AE3">
+        <v>354315.41854397382</v>
+      </c>
+      <c r="AF3">
+        <v>361902.60212297749</v>
+      </c>
+      <c r="AG3">
+        <v>371535.66604170779</v>
+      </c>
+      <c r="AH3">
+        <v>380982.5927209584</v>
+      </c>
+      <c r="AI3">
+        <v>390256.83753794763</v>
+      </c>
+      <c r="AJ3">
+        <v>398846.22348578909</v>
+      </c>
+      <c r="AK3">
+        <v>407185.65063201322</v>
+      </c>
     </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -518,7 +638,7 @@
         <v>2017</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:Q7" si="0">H2</f>
+        <f t="shared" ref="H7:AK7" si="0">H2</f>
         <v>2021</v>
       </c>
       <c r="I7">
@@ -557,8 +677,88 @@
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>4</v>
       </c>
@@ -573,7 +773,7 @@
         <v>845.41628668287183</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:Q8" si="1">H3*3.6/1000</f>
+        <f t="shared" ref="H8:AK8" si="1">H3*3.6/1000</f>
         <v>817.56267225275224</v>
       </c>
       <c r="I8" s="1">
@@ -611,6 +811,86 @@
       <c r="Q8" s="1">
         <f t="shared" si="1"/>
         <v>880.74128187663121</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>905.20140666360442</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="1"/>
+        <v>931.62221728627321</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="1"/>
+        <v>954.94791226377401</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="1"/>
+        <v>983.22268465852517</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="1"/>
+        <v>993.74324404655158</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="1"/>
+        <v>1021.5191762938396</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="1"/>
+        <v>1051.4439712791659</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="1"/>
+        <v>1082.9638850575552</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="1"/>
+        <v>1114.4300734321905</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="1"/>
+        <v>1145.7410388462538</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="1"/>
+        <v>1179.7306406247237</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="1"/>
+        <v>1213.5690590389449</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="1"/>
+        <v>1247.5324149852997</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="1"/>
+        <v>1275.5355067583057</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="1"/>
+        <v>1302.849367642719</v>
+      </c>
+      <c r="AG8" s="1">
+        <f t="shared" si="1"/>
+        <v>1337.5283977501481</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="1"/>
+        <v>1371.5373337954504</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="1"/>
+        <v>1404.9246151366115</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="1"/>
+        <v>1435.8464045488408</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="1"/>
+        <v>1465.8683422752476</v>
       </c>
     </row>
   </sheetData>
